--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\Compiladores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\Compiladores\CMPUC_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383929A3-6758-496A-9AA4-703AB3454AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB217393-6C83-4D42-BB03-399AF31B9715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB6DC127-9FE9-4495-8265-45AA2252B499}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB6DC127-9FE9-4495-8265-45AA2252B499}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="217">
   <si>
     <t>&lt;bloco&gt;</t>
   </si>
@@ -2080,9 +2080,6 @@
     <t>&lt;func&gt;</t>
   </si>
   <si>
-    <t>&lt;while&gt; | &lt;if&gt; |&lt;read&gt; | &lt;print&gt; | &lt;decl&gt; | &lt;exp_atrib&gt; | &lt;return_exp&gt;</t>
-  </si>
-  <si>
     <t>&lt;return_exp&gt;</t>
   </si>
   <si>
@@ -3251,6 +3248,128 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;exp&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -3314,10 +3433,283 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>| &lt;func_call&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;func_call&gt;</t>
+  </si>
+  <si>
+    <t>&lt;while&gt; | &lt;if&gt; |&lt;read&gt; | &lt;print&gt; | &lt;decl&gt; | &lt;exp_atrib&gt; | &lt;return_exp&gt; | &lt;exec_func&gt;</t>
+  </si>
+  <si>
+    <t>&lt;exec_func&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;func_call&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;call_args&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;termo&gt; &lt;call_args'&gt; | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;termo&gt; &lt;call_args'&gt; |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ɛ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;call_args'&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;call_args&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -3348,95 +3740,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>constante</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, (</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;exp&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t>}, #, $</t>
     </r>
   </si>
 </sst>
@@ -3822,7 +4126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8060CE-0295-41A1-9C9F-A34CC912D998}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -3911,10 +4215,10 @@
         <v>32</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>55</v>
@@ -3925,27 +4229,27 @@
         <v>167</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -3997,7 +4301,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -4029,7 +4333,7 @@
         <v>11</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -4173,10 +4477,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>56</v>
@@ -4193,10 +4497,10 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="V19" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -4204,7 +4508,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -4212,7 +4516,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -4220,7 +4524,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -4228,7 +4532,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -4236,7 +4540,7 @@
         <v>37</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -4244,7 +4548,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -4252,7 +4556,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -4260,7 +4564,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -4268,70 +4572,70 @@
         <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -4339,7 +4643,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4347,70 +4651,70 @@
         <v>24</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -4418,7 +4722,7 @@
         <v>38</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -4426,7 +4730,7 @@
         <v>25</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -4434,23 +4738,23 @@
         <v>27</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -4458,7 +4762,7 @@
         <v>30</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -4466,7 +4770,7 @@
         <v>31</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -4474,86 +4778,86 @@
         <v>32</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -4561,110 +4865,110 @@
         <v>55</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4676,16 +4980,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29485915-1D90-4888-A0D0-41548EA4C1F0}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4701,7 +5005,7 @@
         <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,15 +5013,15 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4733,7 +5037,7 @@
         <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4834,10 +5138,42 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>170</v>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4848,10 +5184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5DE4B5-0485-47C4-B9C9-BCAB79FCC749}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4877,7 +5213,7 @@
         <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -4885,10 +5221,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -4899,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>123</v>
@@ -4910,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
@@ -4921,10 +5257,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4935,7 +5271,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4946,7 +5282,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4957,7 +5293,7 @@
         <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4968,7 +5304,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4990,7 +5326,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5009,10 +5345,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
         <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5042,10 +5378,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5056,18 +5392,61 @@
         <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5546,7 +5925,7 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
         <v>119</v>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\Compiladores\CMPUC_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB217393-6C83-4D42-BB03-399AF31B9715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44CDD06-2139-4F36-BE2B-FC125C312F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB6DC127-9FE9-4495-8265-45AA2252B499}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB6DC127-9FE9-4495-8265-45AA2252B499}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="227">
   <si>
     <t>&lt;bloco&gt;</t>
   </si>
@@ -1259,6 +1259,1526 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;bloco&gt;       </t>
+  </si>
+  <si>
+    <t>Não terminais</t>
+  </si>
+  <si>
+    <t>Produções</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;termo&gt;      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;comando&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;while&gt;       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;if&gt;               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;else&gt;          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;read&gt;         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;read’&gt;        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;print&gt;         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;print’&gt;        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;decl&gt;          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;decl’&gt;         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;exp_atrib&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;exp&gt;           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;exp’&gt;          </t>
+  </si>
+  <si>
+    <t>&lt;comando&gt; &lt;bloco&gt; | ɛ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;exp&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;bloco&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">else { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;bloco&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>| ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;read’&gt; | ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;termo&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;print’&gt; | ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; decl’&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; decl’&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; decl’&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt; decl’&gt; | ɛ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">opM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;termo&gt; &lt;exp’&gt; | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">opL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;termo&gt; | ɛ </t>
+    </r>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>((a...z)|(A...Z))+ ((a...z)|(A...Z)|(0...9))*</t>
+  </si>
+  <si>
+    <t>Inumber</t>
+  </si>
+  <si>
+    <t>(0...9)+</t>
+  </si>
+  <si>
+    <t>Fnumber</t>
+  </si>
+  <si>
+    <t>(0...9)+.(0...9)*</t>
+  </si>
+  <si>
+    <t>opM</t>
+  </si>
+  <si>
+    <t>(+|-|/|*|^)</t>
+  </si>
+  <si>
+    <t>opL</t>
+  </si>
+  <si>
+    <t>(==|&gt;|&lt;|&gt;=|&lt;=|!=)</t>
+  </si>
+  <si>
+    <t>Frase</t>
+  </si>
+  <si>
+    <t>(qualquercoisa)*'</t>
+  </si>
+  <si>
+    <t>if (a &gt; b){b = a;}else{a=b;}$</t>
+  </si>
+  <si>
+    <t>analise dirigida por sintaxe</t>
+  </si>
+  <si>
+    <t>&lt;func&gt;</t>
+  </si>
+  <si>
+    <t>&lt;return_exp&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;termo&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ɛ</t>
+    </r>
+  </si>
+  <si>
+    <t>ɛ</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>&lt;args&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">def id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;args&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;bloco&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;func&gt; | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;arg&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float </t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>err1</t>
+  </si>
+  <si>
+    <t>err2</t>
+  </si>
+  <si>
+    <t>EOF not expected</t>
+  </si>
+  <si>
+    <t>err3</t>
+  </si>
+  <si>
+    <t>err4</t>
+  </si>
+  <si>
+    <t>err5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">def id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;arg&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;bloco&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>mssing operand</t>
+  </si>
+  <si>
+    <t>code out of function</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;exp&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">constante </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>| &lt;func_call&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;func_call&gt;</t>
+  </si>
+  <si>
+    <t>&lt;while&gt; | &lt;if&gt; |&lt;read&gt; | &lt;print&gt; | &lt;decl&gt; | &lt;exp_atrib&gt; | &lt;return_exp&gt; | &lt;exec_func&gt;</t>
+  </si>
+  <si>
+    <t>&lt;exec_func&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;func_call&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;call_args&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;termo&gt; &lt;call_args'&gt; | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;termo&gt; &lt;call_args'&gt; |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ɛ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;call_args'&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;call_args&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>while</t>
     </r>
     <r>
@@ -1416,6 +2936,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -1427,7 +2968,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>$</t>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
     </r>
     <r>
       <rPr>
@@ -1448,20 +3002,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$</t>
+      <t>constante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -1482,20 +3044,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>else</t>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -1529,7 +3083,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>while</t>
     </r>
     <r>
       <rPr>
@@ -1550,20 +3104,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>opM</t>
+      <t>if</t>
     </r>
     <r>
       <rPr>
@@ -1584,7 +3125,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>opL</t>
+      <t>read</t>
     </r>
     <r>
       <rPr>
@@ -1605,202 +3146,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ɛ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;bloco&gt;       </t>
-  </si>
-  <si>
-    <t>Não terminais</t>
-  </si>
-  <si>
-    <t>Produções</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;termo&gt;      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;comando&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;while&gt;       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;if&gt;               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;else&gt;          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;read&gt;         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;read’&gt;        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;print&gt;         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;print’&gt;        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;decl&gt;          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;decl’&gt;         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;exp_atrib&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;exp&gt;           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;exp’&gt;          </t>
-  </si>
-  <si>
-    <t>&lt;comando&gt; &lt;bloco&gt; | ɛ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">while ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;exp&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) { </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;bloco&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">else { </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;bloco&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>| ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;read’&gt; | ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;termo&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;print’&gt; | ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>int</t>
     </r>
     <r>
@@ -1811,49 +3177,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt; decl’&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -1874,49 +3198,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt; decl’&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -1937,7 +3219,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -1958,22 +3240,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &lt; decl’&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -1985,133 +3251,151 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt; decl’&gt; | ɛ </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">opM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;termo&gt; &lt;exp’&gt; | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">opL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;termo&gt; | ɛ </t>
-    </r>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>((a...z)|(A...Z))+ ((a...z)|(A...Z)|(0...9))*</t>
-  </si>
-  <si>
-    <t>Inumber</t>
-  </si>
-  <si>
-    <t>(0...9)+</t>
-  </si>
-  <si>
-    <t>Fnumber</t>
-  </si>
-  <si>
-    <t>(0...9)+.(0...9)*</t>
-  </si>
-  <si>
-    <t>opM</t>
-  </si>
-  <si>
-    <t>(+|-|/|*|^)</t>
-  </si>
-  <si>
-    <t>opL</t>
-  </si>
-  <si>
-    <t>(==|&gt;|&lt;|&gt;=|&lt;=|!=)</t>
-  </si>
-  <si>
-    <t>Frase</t>
-  </si>
-  <si>
-    <t>(qualquercoisa)*'</t>
-  </si>
-  <si>
-    <t>if (a &gt; b){b = a;}else{a=b;}$</t>
-  </si>
-  <si>
-    <t>analise dirigida por sintaxe</t>
-  </si>
-  <si>
-    <t>&lt;func&gt;</t>
-  </si>
-  <si>
-    <t>&lt;return_exp&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">return </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;termo&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;termo&gt; &lt;call_args'&gt;</t>
+  </si>
+  <si>
+    <t>, &lt;termo&gt; &lt;call_args'&gt;</t>
+  </si>
+  <si>
+    <t>err6</t>
+  </si>
+  <si>
+    <t>missing (</t>
+  </si>
+  <si>
+    <t>missing {</t>
+  </si>
+  <si>
+    <t>Palavras reservadas</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>missing identificador</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2165,19 +3449,6 @@
       </rPr>
       <t>string</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2197,1529 +3468,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <r>
-      <t>def</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ɛ</t>
-    </r>
-  </si>
-  <si>
-    <t>ɛ</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>&lt;args&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">def id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;args&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) { </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;bloco&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;func&gt; | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ɛ</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;arg&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>return</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> return</t>
-    </r>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float </t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>err1</t>
-  </si>
-  <si>
-    <t>err2</t>
-  </si>
-  <si>
-    <t>EOF not expected</t>
-  </si>
-  <si>
-    <t>err3</t>
-  </si>
-  <si>
-    <t>err4</t>
-  </si>
-  <si>
-    <t>err5</t>
-  </si>
-  <si>
-    <t>missing )</t>
-  </si>
-  <si>
-    <t>missing }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">def id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;arg&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;bloco&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>mssing operand</t>
-  </si>
-  <si>
-    <t>code out of function</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constante</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, (</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;exp&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">constante </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>| &lt;func_call&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;func_call&gt;</t>
-  </si>
-  <si>
-    <t>&lt;while&gt; | &lt;if&gt; |&lt;read&gt; | &lt;print&gt; | &lt;decl&gt; | &lt;exp_atrib&gt; | &lt;return_exp&gt; | &lt;exec_func&gt;</t>
-  </si>
-  <si>
-    <t>&lt;exec_func&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;func_call&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;call_args&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;termo&gt; &lt;call_args'&gt; | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;termo&gt; &lt;call_args'&gt; |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ɛ</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;call_args'&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;call_args&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
+      <t>id, return</t>
     </r>
     <r>
       <rPr>
@@ -3771,12 +3520,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3791,7 +3546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3809,6 +3564,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4124,39 +3885,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8060CE-0295-41A1-9C9F-A34CC912D998}">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20.7109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
@@ -4164,95 +3926,98 @@
         <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="V1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -4265,17 +4030,17 @@
       <c r="E4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>40</v>
@@ -4283,14 +4048,17 @@
       <c r="Q4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="W4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4300,11 +4068,14 @@
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -4312,19 +4083,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>11</v>
@@ -4332,125 +4103,134 @@
       <c r="Q6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="W9" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="R14" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -4458,7 +4238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -4468,507 +4248,649 @@
       <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J18" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="U18" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="W19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="V19" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B25" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="L31" s="5" t="s">
+      <c r="L36" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="5" t="s">
+      <c r="M36" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="5" t="s">
+      <c r="O36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="5" t="s">
+      <c r="P36" s="5" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="S42" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="B52" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>200</v>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4982,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29485915-1D90-4888-A0D0-41548EA4C1F0}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4994,63 +4916,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
@@ -5058,15 +4980,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>43</v>
@@ -5074,15 +4996,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
@@ -5090,31 +5012,31 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
@@ -5122,7 +5044,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -5130,50 +5052,50 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5186,20 +5108,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5DE4B5-0485-47C4-B9C9-BCAB79FCC749}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
@@ -5210,10 +5132,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -5221,10 +5143,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -5235,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5246,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
@@ -5257,10 +5179,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5271,7 +5193,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5282,7 +5204,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5290,10 +5212,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5304,7 +5226,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5312,7 +5234,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -5326,7 +5248,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5334,7 +5256,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -5345,10 +5267,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5356,7 +5278,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -5370,7 +5292,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5378,10 +5300,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5389,64 +5311,85 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5581,7 +5524,7 @@
         <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5925,7 +5868,7 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
         <v>119</v>
@@ -5942,69 +5885,159 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EDE316-3007-4CD1-BDDB-ECD5BF4631D0}">
-  <dimension ref="A23:B31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" t="s">
         <v>153</v>
-      </c>
-      <c r="B23" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
         <v>155</v>
-      </c>
-      <c r="B24" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
         <v>157</v>
-      </c>
-      <c r="B25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
         <v>159</v>
-      </c>
-      <c r="B26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
         <v>161</v>
-      </c>
-      <c r="B27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\Compiladores\CMPUC_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44CDD06-2139-4F36-BE2B-FC125C312F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48D225C-93DD-43F2-B4EF-B5B05DFEEB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB6DC127-9FE9-4495-8265-45AA2252B499}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BB6DC127-9FE9-4495-8265-45AA2252B499}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="227">
   <si>
     <t>&lt;bloco&gt;</t>
   </si>
@@ -2434,6 +2434,446 @@
   </si>
   <si>
     <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;exp&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">constante </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>| &lt;func_call&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;func_call&gt;</t>
+  </si>
+  <si>
+    <t>&lt;while&gt; | &lt;if&gt; |&lt;read&gt; | &lt;print&gt; | &lt;decl&gt; | &lt;exp_atrib&gt; | &lt;return_exp&gt; | &lt;exec_func&gt;</t>
+  </si>
+  <si>
+    <t>&lt;exec_func&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;func_call&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;call_args&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;termo&gt; &lt;call_args'&gt; | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;termo&gt; &lt;call_args'&gt; |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ɛ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;call_args'&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;call_args&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -2452,6 +2892,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -2463,6 +2924,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>constante</t>
     </r>
     <r>
@@ -2473,11 +2968,538 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, (</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;termo&gt; &lt;call_args'&gt;</t>
+  </si>
+  <si>
+    <t>, &lt;termo&gt; &lt;call_args'&gt;</t>
+  </si>
+  <si>
+    <t>err6</t>
+  </si>
+  <si>
+    <t>missing (</t>
+  </si>
+  <si>
+    <t>missing {</t>
+  </si>
+  <si>
+    <t>Palavras reservadas</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>missing identificador</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id, return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}, #, $</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -2488,58 +3510,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;exp&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -2551,945 +3521,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">constante </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>| &lt;func_call&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;func_call&gt;</t>
-  </si>
-  <si>
-    <t>&lt;while&gt; | &lt;if&gt; |&lt;read&gt; | &lt;print&gt; | &lt;decl&gt; | &lt;exp_atrib&gt; | &lt;return_exp&gt; | &lt;exec_func&gt;</t>
-  </si>
-  <si>
-    <t>&lt;exec_func&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;func_call&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;call_args&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;termo&gt; &lt;call_args'&gt; | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;termo&gt; &lt;call_args'&gt; |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ɛ</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;call_args'&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;call_args&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>#</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constante</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ɛ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;termo&gt; &lt;call_args'&gt;</t>
-  </si>
-  <si>
-    <t>, &lt;termo&gt; &lt;call_args'&gt;</t>
-  </si>
-  <si>
-    <t>err6</t>
-  </si>
-  <si>
-    <t>missing (</t>
-  </si>
-  <si>
-    <t>missing {</t>
-  </si>
-  <si>
-    <t>Palavras reservadas</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>missing identificador</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id, return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}, #, $</t>
     </r>
   </si>
 </sst>
@@ -3520,18 +3552,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3565,10 +3591,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3887,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8060CE-0295-41A1-9C9F-A34CC912D998}">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,7 +3952,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -4069,10 +4095,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -4083,7 +4109,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
@@ -4248,6 +4274,9 @@
       <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="J17" s="5" t="s">
         <v>52</v>
       </c>
@@ -4285,34 +4314,34 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W21" s="6"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>56</v>
@@ -4321,13 +4350,13 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W23" s="6"/>
     </row>
@@ -4339,70 +4368,70 @@
         <v>183</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -4415,7 +4444,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>183</v>
@@ -4850,7 +4879,7 @@
         <v>186</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4858,7 +4887,7 @@
         <v>187</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4887,10 +4916,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4904,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29485915-1D90-4888-A0D0-41548EA4C1F0}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,7 +4956,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4959,7 +4988,7 @@
         <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,34 +5097,34 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5108,8 +5137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5DE4B5-0485-47C4-B9C9-BCAB79FCC749}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5157,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
         <v>122</v>
@@ -5168,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
@@ -5179,10 +5208,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5193,7 +5222,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5204,7 +5233,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5215,7 +5244,7 @@
         <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5226,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5248,7 +5277,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5270,7 +5299,7 @@
         <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5292,7 +5321,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5300,10 +5329,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5314,7 +5343,7 @@
         <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5325,26 +5354,26 @@
         <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
         <v>121</v>
@@ -5352,10 +5381,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
@@ -5363,10 +5392,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
@@ -5374,22 +5403,22 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5899,7 +5928,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5924,17 +5953,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -5949,7 +5978,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -5959,12 +5988,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
